--- a/Rastreo productos/cortes.xlsx
+++ b/Rastreo productos/cortes.xlsx
@@ -1,72 +1,95 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="2018-10-09" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2018-10-09" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2018-11-14" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>I cortes</t>
   </si>
   <si>
+    <t>T cortes</t>
+  </si>
+  <si>
     <t>DESCRIPCION</t>
   </si>
   <si>
+    <t>CHORIZO PARRILLERO 1000 GRS</t>
+  </si>
+  <si>
+    <t>P cortes</t>
+  </si>
+  <si>
+    <t>RIB EYE LIP-ON 300 GRS</t>
+  </si>
+  <si>
     <t>CANTIDAD</t>
   </si>
   <si>
-    <t>CHORIZO PARRILLERO 1000 GRS</t>
-  </si>
-  <si>
-    <t>P cortes</t>
-  </si>
-  <si>
-    <t>T cortes</t>
-  </si>
-  <si>
-    <t>RIB EYE LIP-ON 300 GRS</t>
+    <t>NEW YORK 300 GRS</t>
+  </si>
+  <si>
+    <t>RIB EYE LIP-ON 500 GRS</t>
+  </si>
+  <si>
+    <t>ARRACHERA NACIONAL 500 GRS</t>
+  </si>
+  <si>
+    <t>CHORIZO ARGENTINO 1000 GRS</t>
+  </si>
+  <si>
+    <t>HAMBUERGUESA 500 GRS</t>
+  </si>
+  <si>
+    <t>SHORT RIB 300 GRS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -89,21 +112,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -391,30 +423,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>65</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="n">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -423,35 +461,155 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="J3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="I4" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Rastreo productos/cortes.xlsx
+++ b/Rastreo productos/cortes.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="12615" windowHeight="6855" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2018-10-09" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2018-11-14" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2018-10-09" sheetId="1" r:id="rId1"/>
+    <sheet name="2018-11-14(05-11_11)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>I cortes</t>
   </si>
@@ -59,31 +59,33 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -113,29 +115,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -423,34 +439,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>65</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -467,11 +477,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -480,67 +490,63 @@
       <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="n">
+      <c r="B1" s="2">
         <v>64</v>
       </c>
-      <c r="C1" s="2" t="n">
+      <c r="C1" s="2">
         <v>65</v>
       </c>
-      <c r="D1" s="2" t="n">
+      <c r="D1" s="2">
         <v>66</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="n">
+      <c r="F1" s="2">
         <v>47</v>
       </c>
-      <c r="G1" s="2" t="n">
+      <c r="G1" s="2">
         <v>48</v>
       </c>
-      <c r="H1" s="2" t="n">
+      <c r="H1" s="2">
         <v>49</v>
       </c>
-      <c r="I1" s="2" t="n">
+      <c r="I1" s="2">
         <v>50</v>
       </c>
-      <c r="J1" s="2" t="n">
+      <c r="J1" s="2">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -572,44 +578,44 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>5</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Rastreo productos/cortes.xlsx
+++ b/Rastreo productos/cortes.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="12615" windowHeight="6855" activeTab="1"/>
+    <workbookView activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2018-10-09" sheetId="1" r:id="rId1"/>
-    <sheet name="2018-11-14(05-11_11)" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2018-10-09" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2018-11-14(05-11_11)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019-01-23" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>I cortes</t>
   </si>
@@ -59,39 +60,43 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -129,29 +134,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -439,28 +448,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>65</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="1" t="n">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -477,11 +492,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -490,63 +505,67 @@
       <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="2" t="n">
         <v>66</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="2" t="n">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -578,44 +597,96 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>